--- a/image_ratings.xlsx
+++ b/image_ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s173976_dtu_dk/Documents/DTU/02238 - Biometric Systems/MBL project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_3AAD90A6D310DB43EFDA3511595ED87656CDB087" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82E629F1-2197-B440-9E5F-3D9929050F97}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="11_3AAD90A6D310DB43EFDA3511595ED87656CDB087" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00CEB678-11E3-B044-B96F-EC11E52165F5}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="740" windowWidth="28380" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -899,13 +899,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -967,13 +967,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -987,10 +987,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1001,10 +1001,10 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1038,10 +1038,10 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1069,13 +1069,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1103,13 +1103,13 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1137,10 +1137,10 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1157,10 +1157,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1239,10 +1239,10 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1276,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1324,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1375,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1426,13 +1426,13 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1443,13 +1443,13 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1579,10 +1579,10 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1613,10 +1613,10 @@
         <v>5</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1664,13 +1664,13 @@
         <v>5</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1701,10 +1701,10 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1715,10 +1715,10 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1732,10 +1732,10 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1766,10 +1766,10 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1837,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1868,7 +1868,7 @@
         <v>5</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>5</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1919,13 +1919,13 @@
         <v>5</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1970,7 +1970,7 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>5</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2089,13 +2089,13 @@
         <v>5</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2157,10 +2157,10 @@
         <v>5</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2174,10 +2174,10 @@
         <v>5</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2208,13 +2208,13 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2225,13 +2225,13 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -2242,10 +2242,10 @@
         <v>84</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         <v>84</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -2276,7 +2276,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2310,13 +2310,13 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2327,13 +2327,13 @@
         <v>84</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2361,7 +2361,7 @@
         <v>84</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>84</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2446,10 +2446,10 @@
         <v>84</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -2500,10 +2500,10 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2517,10 +2517,10 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2537,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2548,7 +2548,7 @@
         <v>84</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2616,7 +2616,7 @@
         <v>84</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>84</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>84</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2701,10 +2701,10 @@
         <v>84</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -2718,13 +2718,13 @@
         <v>84</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2752,7 +2752,7 @@
         <v>84</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>84</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2786,7 +2786,7 @@
         <v>84</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>84</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>84</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -2854,10 +2854,10 @@
         <v>84</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -2905,7 +2905,7 @@
         <v>84</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -2922,7 +2922,7 @@
         <v>84</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2956,7 +2956,7 @@
         <v>84</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -2973,7 +2973,7 @@
         <v>84</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -3007,10 +3007,10 @@
         <v>84</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -3024,13 +3024,13 @@
         <v>84</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -3041,10 +3041,10 @@
         <v>84</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -3109,13 +3109,13 @@
         <v>84</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="E133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -3126,13 +3126,13 @@
         <v>84</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3143,13 +3143,13 @@
         <v>84</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -3177,10 +3177,10 @@
         <v>84</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>84</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>84</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -3279,7 +3279,7 @@
         <v>84</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -3296,7 +3296,7 @@
         <v>84</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E146">
         <v>1</v>
